--- a/courseBidding/StudentForm (Combined) (Responses).xlsx
+++ b/courseBidding/StudentForm (Combined) (Responses).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="76">
   <si>
     <t>Timestamp</t>
   </si>
@@ -233,6 +233,27 @@
   </si>
   <si>
     <t>mds2252@columbia.edu</t>
+  </si>
+  <si>
+    <t>la2836@columbia.edu</t>
+  </si>
+  <si>
+    <t>ih2350@columbia.edu</t>
+  </si>
+  <si>
+    <t>sc4619@columbia.edu</t>
+  </si>
+  <si>
+    <t>rrb2150@columbia.edu</t>
+  </si>
+  <si>
+    <t>sg3775@columbia.edu</t>
+  </si>
+  <si>
+    <t>rs4011@columbia.edu</t>
+  </si>
+  <si>
+    <t>vml2131@columbia.edu</t>
   </si>
 </sst>
 </file>
@@ -2959,6 +2980,488 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>44048.73211793981</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>44049.49276581018</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>44049.94654726852</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>44051.5307858912</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>44052.08866034722</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AL39" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>44052.88974935185</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="AL40" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>44053.46573009259</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>20.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
